--- a/Jogos_do_Dia/2023-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -858,13 +858,13 @@
         <v>64</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G3">
         <v>4.25</v>
       </c>
       <c r="H3">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="I3">
         <v>1.01</v>
@@ -879,10 +879,10 @@
         <v>3.34</v>
       </c>
       <c r="M3">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O3">
         <v>1.38</v>
@@ -962,13 +962,13 @@
         <v>65</v>
       </c>
       <c r="F4">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H4">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="I4">
         <v>1.04</v>
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="N4">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
         <v>1.3</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF4">
         <v>1.65</v>
@@ -1046,7 +1046,7 @@
         <v>2.02</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1066,13 +1066,13 @@
         <v>66</v>
       </c>
       <c r="F5">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H5">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1081,10 +1081,10 @@
         <v>5.85</v>
       </c>
       <c r="K5">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="L5">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="M5">
         <v>2.43</v>
@@ -1170,13 +1170,13 @@
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G6">
-        <v>4.34</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1194,7 +1194,7 @@
         <v>1.72</v>
       </c>
       <c r="N6">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
         <v>1.3</v>
@@ -1233,25 +1233,25 @@
         <v>3.78</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>68</v>
       </c>
       <c r="F7">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="H7">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I7">
         <v>1.11</v>
@@ -1289,10 +1289,10 @@
         <v>5.5</v>
       </c>
       <c r="K7">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="L7">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M7">
         <v>2.67</v>
@@ -1378,13 +1378,13 @@
         <v>69</v>
       </c>
       <c r="F8">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G8">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
         <v>1.03</v>
@@ -1399,10 +1399,10 @@
         <v>3.04</v>
       </c>
       <c r="M8">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="N8">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -1482,13 +1482,13 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="G9">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H9">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I9">
         <v>1.05</v>
@@ -1503,10 +1503,10 @@
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N9">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="O9">
         <v>1.39</v>
@@ -1592,7 +1592,7 @@
         <v>3.4</v>
       </c>
       <c r="H10">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1607,10 +1607,10 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="N10">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1690,13 +1690,13 @@
         <v>72</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I11">
         <v>1.04</v>
@@ -1794,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="F12">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1898,13 +1898,13 @@
         <v>74</v>
       </c>
       <c r="F13">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1919,10 +1919,10 @@
         <v>3.5</v>
       </c>
       <c r="M13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O13">
         <v>1.37</v>
@@ -2002,13 +2002,13 @@
         <v>75</v>
       </c>
       <c r="F14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G14">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H14">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2023,10 +2023,10 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="N14">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="O14">
         <v>1.41</v>
@@ -2074,7 +2074,7 @@
         <v>2.63</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE14">
         <v>1.5</v>
@@ -2086,7 +2086,7 @@
         <v>2.25</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2106,13 +2106,13 @@
         <v>76</v>
       </c>
       <c r="F15">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H15">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2127,10 +2127,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="N15">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2210,13 +2210,13 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="G16">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H16">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>1.06</v>
@@ -2231,10 +2231,10 @@
         <v>3.25</v>
       </c>
       <c r="M16">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="N16">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="O16">
         <v>1.36</v>
@@ -2282,7 +2282,7 @@
         <v>3.7</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE16">
         <v>1.48</v>
@@ -2314,13 +2314,13 @@
         <v>78</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="G17">
         <v>3.2</v>
       </c>
       <c r="H17">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I17">
         <v>1.06</v>
@@ -2335,10 +2335,10 @@
         <v>3.42</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N17">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="O17">
         <v>1.42</v>
@@ -2386,7 +2386,7 @@
         <v>1.91</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE17">
         <v>1.48</v>
@@ -2418,13 +2418,13 @@
         <v>79</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G18">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I18">
         <v>1.07</v>
@@ -2439,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="N18">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -2522,13 +2522,13 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="G19">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H19">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -2543,10 +2543,10 @@
         <v>4.5</v>
       </c>
       <c r="M19">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O19">
         <v>1.3</v>
@@ -2626,13 +2626,13 @@
         <v>81</v>
       </c>
       <c r="F20">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G20">
         <v>3.4</v>
       </c>
       <c r="H20">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="I20">
         <v>1.04</v>
@@ -2647,10 +2647,10 @@
         <v>4.25</v>
       </c>
       <c r="M20">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O20">
         <v>1.33</v>
@@ -2793,28 +2793,28 @@
         <v>1.8</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2897,28 +2897,28 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -802,10 +802,10 @@
         <v>1.46</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
         <v>1.13</v>
@@ -858,13 +858,13 @@
         <v>64</v>
       </c>
       <c r="F3">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>4.25</v>
       </c>
       <c r="H3">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="I3">
         <v>1.01</v>
@@ -879,10 +879,10 @@
         <v>3.34</v>
       </c>
       <c r="M3">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="N3">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
         <v>1.38</v>
@@ -906,10 +906,10 @@
         <v>1.08</v>
       </c>
       <c r="V3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W3">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
         <v>1.43</v>
@@ -965,10 +965,10 @@
         <v>1.53</v>
       </c>
       <c r="G4">
-        <v>3.9</v>
+        <v>4.16</v>
       </c>
       <c r="H4">
-        <v>5.25</v>
+        <v>5.4</v>
       </c>
       <c r="I4">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O4">
         <v>1.3</v>
@@ -1034,7 +1034,7 @@
         <v>4.85</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE4">
         <v>1.33</v>
@@ -1066,13 +1066,13 @@
         <v>66</v>
       </c>
       <c r="F5">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="G5">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7.75</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1081,16 +1081,16 @@
         <v>5.85</v>
       </c>
       <c r="K5">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="L5">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="M5">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="N5">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
         <v>1.6</v>
@@ -1170,13 +1170,13 @@
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
+        <v>3.57</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1191,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>1.3</v>
@@ -1242,7 +1242,7 @@
         <v>3.76</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE6">
         <v>1.57</v>
@@ -1254,7 +1254,7 @@
         <v>2.42</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1274,13 +1274,13 @@
         <v>68</v>
       </c>
       <c r="F7">
-        <v>2.77</v>
+        <v>3.73</v>
       </c>
       <c r="G7">
-        <v>2.47</v>
+        <v>7.02</v>
       </c>
       <c r="H7">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="I7">
         <v>1.11</v>
@@ -1289,16 +1289,16 @@
         <v>5.5</v>
       </c>
       <c r="K7">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="N7">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="O7">
         <v>1.61</v>
@@ -1378,13 +1378,13 @@
         <v>69</v>
       </c>
       <c r="F8">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="G8">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>4.92</v>
       </c>
       <c r="I8">
         <v>1.03</v>
@@ -1399,10 +1399,10 @@
         <v>3.04</v>
       </c>
       <c r="M8">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="N8">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -1482,13 +1482,13 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>2.98</v>
+        <v>6.71</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>5.95</v>
       </c>
       <c r="H9">
-        <v>2.25</v>
+        <v>1.26</v>
       </c>
       <c r="I9">
         <v>1.05</v>
@@ -1503,10 +1503,10 @@
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="N9">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
         <v>1.39</v>
@@ -1586,13 +1586,13 @@
         <v>71</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>1.92</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="H10">
-        <v>1.73</v>
+        <v>3.06</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1607,10 +1607,10 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1690,13 +1690,13 @@
         <v>72</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>4.09</v>
       </c>
       <c r="H11">
-        <v>2.18</v>
+        <v>4.32</v>
       </c>
       <c r="I11">
         <v>1.04</v>
@@ -1711,10 +1711,10 @@
         <v>2.98</v>
       </c>
       <c r="M11">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N11">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O11">
         <v>1.47</v>
@@ -1794,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>4.37</v>
       </c>
       <c r="G12">
-        <v>3.25</v>
+        <v>1.35</v>
       </c>
       <c r="H12">
-        <v>4.1</v>
+        <v>6.93</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1815,10 +1815,10 @@
         <v>2.73</v>
       </c>
       <c r="M12">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O12">
         <v>1.49</v>
@@ -1898,13 +1898,13 @@
         <v>74</v>
       </c>
       <c r="F13">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H13">
-        <v>3.9</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1919,10 +1919,10 @@
         <v>3.5</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N13">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O13">
         <v>1.37</v>
@@ -2002,13 +2002,13 @@
         <v>75</v>
       </c>
       <c r="F14">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="G14">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2023,10 +2023,10 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="N14">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="O14">
         <v>1.41</v>
@@ -2106,13 +2106,13 @@
         <v>76</v>
       </c>
       <c r="F15">
-        <v>2.42</v>
+        <v>2.86</v>
       </c>
       <c r="G15">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H15">
-        <v>2.61</v>
+        <v>2.4</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2127,10 +2127,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="N15">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2210,13 +2210,13 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="G16">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I16">
         <v>1.06</v>
@@ -2231,10 +2231,10 @@
         <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="N16">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="O16">
         <v>1.36</v>
@@ -2314,13 +2314,13 @@
         <v>78</v>
       </c>
       <c r="F17">
-        <v>2.84</v>
+        <v>3.32</v>
       </c>
       <c r="G17">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H17">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="I17">
         <v>1.06</v>
@@ -2335,10 +2335,10 @@
         <v>3.42</v>
       </c>
       <c r="M17">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="N17">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="O17">
         <v>1.42</v>
@@ -2418,13 +2418,13 @@
         <v>79</v>
       </c>
       <c r="F18">
-        <v>2.12</v>
+        <v>3.76</v>
       </c>
       <c r="G18">
-        <v>3.25</v>
+        <v>5.36</v>
       </c>
       <c r="H18">
-        <v>3.15</v>
+        <v>1.52</v>
       </c>
       <c r="I18">
         <v>1.07</v>
@@ -2439,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="N18">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -2522,13 +2522,13 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="G19">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="H19">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -2543,10 +2543,10 @@
         <v>4.5</v>
       </c>
       <c r="M19">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="N19">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O19">
         <v>1.3</v>
@@ -2626,13 +2626,13 @@
         <v>81</v>
       </c>
       <c r="F20">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="H20">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="I20">
         <v>1.04</v>
@@ -2647,10 +2647,10 @@
         <v>4.25</v>
       </c>
       <c r="M20">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="N20">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="O20">
         <v>1.33</v>
